--- a/MidataMiScript.xlsx
+++ b/MidataMiScript.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD75"/>
+  <dimension ref="A1:AK75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,76 +556,111 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>Q1_2022</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Q2_2022</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Q3_2022</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Q4_2022</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>SQ_2022</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>Total 2025</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Total 2025 (include SQ)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Total 2024</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Total 2024 (include SQ)</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Total 2023</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Total 2023 (include SQ)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Total 2022</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Total 2022 (include SQ)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>57156565000</t>
+          <t>24329839300</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T00076376</t>
+          <t>T00013767</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>YADY TATIANA SOLANO CORREA</t>
+          <t>ANDRES GUILLERMO MARRUGO HERNANDEZ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Solano-Correa, Yady Tatiana</t>
+          <t>Marrugo, Andrés G.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57156565000</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=24329839300</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Solano-Correa, Yady Tatiana (57156565000)</t>
+          <t>Marrugo, Andres G. (24329839300)</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -643,52 +678,73 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
+        <v>11</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK2" t="n">
         <v>8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -785,32 +841,53 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
         <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
         <v>3</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>24329839300</t>
+          <t>57194034904</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T00013767</t>
+          <t>T00014261</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ANDRES GUILLERMO MARRUGO HERNANDEZ</t>
+          <t>HOLMAN OSPINA MATEUS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -820,103 +897,124 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Marrugo, Andrés G.</t>
+          <t>Ospina-Mateus, Holman</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=24329839300</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57194034904</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Marrugo, Andres G. (24329839300)</t>
+          <t>Ospina-Mateus, Holman (57194034904)</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI4" t="n">
         <v>6</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>14</v>
+      <c r="AJ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>57194034904</t>
+          <t>57193533853</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T00014261</t>
+          <t>T00000629</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HOLMAN OSPINA MATEUS</t>
+          <t>JAIME ANTONIO ACEVEDO CHEDID</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -926,24 +1024,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ospina-Mateus, Holman</t>
+          <t>Acevedo-Chedid, Jaime</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57194034904</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57193533853</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ospina-Mateus, Holman (57194034904)</t>
+          <t>Acevedo-Chedid, Jaime (57193533853)</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -973,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -988,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -997,52 +1095,73 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>57193533853</t>
+          <t>36142156300</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T00000629</t>
+          <t>T00000080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JAIME ANTONIO ACEVEDO CHEDID</t>
+          <t>LENNY ALEXANDRA ROMERO PEREZ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Acevedo-Chedid, Jaime</t>
+          <t>Romero, Lenny A.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57193533853</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=36142156300</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Acevedo-Chedid, Jaime (57193533853)</t>
+          <t>Romero, Lenny A. (36142156300)</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1067,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -1094,25 +1213,46 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1203,74 +1343,95 @@
         <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="n">
         <v>1</v>
       </c>
       <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
         <v>3</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AG7" t="n">
         <v>3</v>
       </c>
-      <c r="AC7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AH7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>36142156300</t>
+          <t>57193012270</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T00000080</t>
+          <t>T00021680</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LENNY ALEXANDRA ROMERO PEREZ</t>
+          <t>MIGUEL EFREN GARCES PRETTEL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Romero, Lenny A.</t>
+          <t>Garcés-Prettel, Miguel</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=36142156300</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57193012270</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Romero, Lenny A. (36142156300)</t>
+          <t>Garcés-Prettel, Miguel (57193012270)</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
         <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1279,34 +1440,34 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1315,62 +1476,83 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>57039103600</t>
+          <t>56674579200</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T00047675</t>
+          <t>T00020729</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LAURA PATRICIA MARTINEZ BUELVAS</t>
+          <t>ROSA LEONOR ACEVEDO BARRIOS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Martínez-Buelvas, Laura Patricia</t>
+          <t>Acevedo-Barrios, R. L.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57039103600</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=56674579200</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Martínez-Buelvas, Laura (57039103600)</t>
+          <t>Acevedo-Barrios, R. (56674579200)</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1385,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1397,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1412,389 +1594,473 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>56674579200</t>
+          <t>57210822856</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T00020729</t>
+          <t>T00000243</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ROSA LEONOR ACEVEDO BARRIOS</t>
+          <t>SONIA HELENA CONTRERAS ORTIZ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Acevedo-Barrios, R. L.</t>
+          <t>Contreras-Ortiz, Sonia H.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=56674579200</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57210822856</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Acevedo-Barrios, R. (56674579200)</t>
+          <t>Contreras-Ortiz, S.H. (57210822856)</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>9</v>
       </c>
       <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="n">
         <v>7</v>
       </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="AJ10" t="n">
         <v>3</v>
       </c>
-      <c r="Y10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AK10" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>57210822856</t>
+          <t>57191333650</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T00000243</t>
+          <t>T00069449</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SONIA HELENA CONTRERAS ORTIZ</t>
+          <t>DAVID SIERRA PORTA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Contreras-Ortiz, Sonia H.</t>
+          <t>Sierra-Porta D.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57210822856</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57191333650</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Contreras-Ortiz, S.H. (57210822856)</t>
+          <t>Sierra-Porta, D. (57191333650)</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF11" t="n">
         <v>5</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="AG11" t="n">
         <v>8</v>
       </c>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="AH11" t="n">
         <v>6</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AI11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>3</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AK11" t="n">
         <v>4</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>57191333650</t>
+          <t>7005142049</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T00069449</t>
+          <t>T00000068</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DAVID SIERRA PORTA</t>
+          <t>JOSE LUIS VILLA RAMIREZ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sierra-Porta D.</t>
+          <t>Villa, J. L.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57191333650</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57195913752</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sierra-Porta, D. (57191333650)</t>
+          <t>Villa, J.L. (7005142049)</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1</v>
-      </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
         <v>5</v>
       </c>
-      <c r="AB12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
+      <c r="AH12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7005142049</t>
+          <t>55649334800</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T00000068</t>
+          <t>T00049553</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>JOSE LUIS VILLA RAMIREZ</t>
+          <t>DIANA CAROLINA RUBIANO LABRADOR</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Villa, J. L.</t>
+          <t>Rubiano-Labrador, Carolina</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57195913752</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=55649334800</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Villa, J.L. (7005142049)</t>
+          <t>Rubiano-Labrador, C. (55649334800)</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1803,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1833,44 +2099,65 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK13" t="n">
         <v>4</v>
-      </c>
-      <c r="X13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>57193012270</t>
+          <t>26325154200</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>T00021680</t>
+          <t>T00000254</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MIGUEL EFREN GARCES PRETTEL</t>
+          <t>JUAN CARLOS MARTINEZ SANTOS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1880,33 +2167,33 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Garcés-Prettel, Miguel</t>
+          <t>Martínez, Juan Carlos</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57193012270</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=26325154200</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Garcés-Prettel, Miguel (57193012270)</t>
+          <t>Martínez-Santos, Juan Carlos (26325154200)</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1915,22 +2202,22 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>3</v>
       </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>1</v>
@@ -1942,71 +2229,92 @@
         <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>55649334800</t>
+          <t>55872162200</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T00049553</t>
+          <t>T00044492</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIANA CAROLINA RUBIANO LABRADOR</t>
+          <t>MAURO ANTONIO MAZA CHAMORRO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rubiano-Labrador, Carolina</t>
+          <t>Maza-Chamorro, Mauro Antonio</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=55649334800</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=55872162200</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rubiano-Labrador, C. (55649334800)</t>
+          <t>Maza-Chamorro, Mauro Antonio (55872162200)</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2033,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2048,41 +2356,62 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>26325154200</t>
+          <t>35788581800</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T00000254</t>
+          <t>T00090440</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JUAN CARLOS MARTINEZ SANTOS</t>
+          <t xml:space="preserve">CESAR AUGUSTO VILORIA NUÑEZ </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2092,103 +2421,124 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Martínez, Juan Carlos</t>
+          <t>Viloria-Nuñez, Cesar</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=26325154200</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=35788581800</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Martínez-Santos, Juan Carlos (26325154200)</t>
+          <t>Viloria-Nuñez, Cesar (35788581800)</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>6</v>
       </c>
       <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>11</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE16" t="n">
         <v>3</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="AF16" t="n">
         <v>3</v>
       </c>
-      <c r="S16" t="n">
-        <v>12</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="AG16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH16" t="n">
         <v>4</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AI16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
         <v>4</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>55872162200</t>
+          <t>57024211000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>T00044492</t>
+          <t>T00057415</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MAURO ANTONIO MAZA CHAMORRO</t>
+          <t>DEYLER RAFAEL CASTILLA CABALLERO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2198,30 +2548,30 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Maza-Chamorro, Mauro Antonio</t>
+          <t>Castilla-Caballero, Deyler</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=55872162200</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57024211000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Maza-Chamorro, Mauro Antonio (55872162200)</t>
+          <t>Castilla-Caballero, Deyler (57024211000)</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2248,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2257,13 +2607,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2278,23 +2628,44 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>35788581800</t>
+          <t>57202285682</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T00090440</t>
+          <t>T00008436</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">CESAR AUGUSTO VILORIA NUÑEZ </t>
+          <t>EDWIN ALEXANDER PUERTAS DEL CASTILLO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2304,24 +2675,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Viloria-Nuñez, Cesar</t>
+          <t>Puertas, Edwin</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=35788581800</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57202285682</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Viloria-Nuñez, Cesar (35788581800)</t>
+          <t>Puertas, Edwin (57202285682)</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -2330,16 +2701,16 @@
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2348,185 +2719,227 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD18" t="n">
         <v>3</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AE18" t="n">
         <v>3</v>
       </c>
-      <c r="AB18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>8</v>
+      <c r="AF18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>57024211000</t>
+          <t>57196040759</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T00057415</t>
+          <t>T00052721</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DEYLER RAFAEL CASTILLA CABALLERO</t>
+          <t>PEDRO VAZQUEZ MIRAZ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Castilla-Caballero, Deyler</t>
+          <t>Vázquez-Miraz, Pedro</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57024211000</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57196040759</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Castilla-Caballero, Deyler (57024211000)</t>
+          <t>Vázquez-Miraz, Pedro (57196040759)</t>
         </is>
       </c>
       <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="n">
         <v>5</v>
       </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2</v>
+      <c r="AG19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>56801043600</t>
+          <t>57220077867</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>T00069460</t>
+          <t>T00000060</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ARGEMIRO PALENCIA DIAZ</t>
+          <t>VILMA VIVIANA OJEDA CAICEDO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Palencia Díaz, Argemiro</t>
+          <t>Ojeda-Caicedo, Vilma Viviana</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=56801043600</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57220077867</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Día, A. Palencia (56801043600)</t>
+          <t>Ojeda-Caicedo, Vilma V. (57220077867)</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2548,38 +2961,38 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>3</v>
       </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
@@ -2587,59 +3000,80 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
         <v>1</v>
       </c>
       <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>56380539800</t>
+          <t>57200615582</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>T00009384</t>
+          <t>T00040553</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DANIEL TORO GONZALEZ</t>
+          <t>MILTON CESAR GUERRERO PAJARO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Toro-González, Daniel</t>
+          <t>Guerrero, Milton</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=56380539800</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57200615582</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Toro Gonzalez, Daniel (56380539800)</t>
+          <t>Guerrero, Milton (57200615582)</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2660,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2675,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2687,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2696,29 +3130,50 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>57188841051</t>
+          <t>57350116000</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T00053267</t>
+          <t>T00055760</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EDISSON CHAVARRO MESA</t>
+          <t>JEOVANNY DE JESUS MUENTES ACEVEDO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2728,17 +3183,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Chavarro-Mesa, Edisson</t>
+          <t>Acevedo, Jeovanny Muentes</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57188841051</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57222990626</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chavarro-Mesa, Edisson (57188841051)</t>
+          <t>Muentes, J. (57350116000)</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2748,13 +3203,13 @@
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2766,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -2775,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2787,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2802,135 +3257,177 @@
         <v>1</v>
       </c>
       <c r="AB22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>57202285682</t>
+          <t>57192930752</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>T00008436</t>
+          <t>T00019649</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EDWIN ALEXANDER PUERTAS DEL CASTILLO</t>
+          <t>KAROL PATRICIA GUTIERREZ RUIZ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Puertas, Edwin</t>
+          <t>Gutiérrez-Ruiz, Karol Patricia</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57202285682</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57192930752</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Puertas, Edwin (57202285682)</t>
+          <t>Gutiérrez-Ruiz, K. (57192930752)</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>4</v>
       </c>
       <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>4</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>12</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>13</v>
+      <c r="AK23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>57350116000</t>
+          <t>57188841051</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T00055760</t>
+          <t>T00053267</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JEOVANNY DE JESUS MUENTES ACEVEDO</t>
+          <t>EDISSON CHAVARRO MESA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2940,17 +3437,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Acevedo, Jeovanny Muentes</t>
+          <t>Chavarro-Mesa, Edisson</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57222990626</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57188841051</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Muentes, J. (57350116000)</t>
+          <t>Chavarro-Mesa, Edisson (57188841051)</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -2960,13 +3457,13 @@
         <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2978,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2987,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2999,44 +3496,65 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>57192930752</t>
+          <t>56380539800</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T00019649</t>
+          <t>T00009384</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>KAROL PATRICIA GUTIERREZ RUIZ</t>
+          <t>DANIEL TORO GONZALEZ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3046,42 +3564,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gutiérrez-Ruiz, Karol Patricia</t>
+          <t>Toro-González, Daniel</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57192930752</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=56380539800</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Gutiérrez-Ruiz, K. (57192930752)</t>
+          <t>Toro Gonzalez, Daniel (56380539800)</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -3090,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -3105,44 +3623,65 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>57200615582</t>
+          <t>56801043600</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>T00040553</t>
+          <t>T00069460</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MILTON CESAR GUERRERO PAJARO</t>
+          <t>ARGEMIRO PALENCIA DIAZ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3152,24 +3691,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Guerrero, Milton</t>
+          <t>Palencia Díaz, Argemiro</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57200615582</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=56801043600</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Guerrero, Milton (57200615582)</t>
+          <t>Día, A. Palencia (56801043600)</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -3187,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3226,56 +3765,77 @@
         <v>1</v>
       </c>
       <c r="AB26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>58660078000</t>
+          <t>57758796500</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T00000073</t>
+          <t>T00000058</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AARÓN EDUARDO ESPINOSA ESPINOSA</t>
+          <t>JORGE LUIS MUÑIZ OLITE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Espinosa-Espinos, Aaron</t>
+          <t>Muñiz-Olite, Jorge Luis</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57211108028</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57758796500</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Espinosa-Espinos, Aaron (58660078000)</t>
+          <t>Olite, Jorge Luis Muñiz (57758796500)</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3299,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3311,13 +3871,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3326,68 +3886,89 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>57190688459</t>
+          <t>57206773929</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>T00019348</t>
+          <t>T00055756</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ALBERTO PATIÑO VANEGAS</t>
+          <t>TANIA LUCIA COBOS COBOS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Patiño, Alberto</t>
+          <t>Cobos, Tania Lucía</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57190688459</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57206773929</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Patiño-Vanegas, Alberto (57190688459)</t>
+          <t>Cobos, Tania Lucía (57206773929)</t>
         </is>
       </c>
       <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
         <v>3</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3408,59 +3989,80 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>55258973100</t>
+          <t>56581610900</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>T00059175</t>
+          <t>T00007524</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CLAUDIA PATRICIA DIAZ MENDOZA</t>
+          <t>JUAN GABRIEL FAJARDO CUADRO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3470,33 +4072,33 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Díaz-Mendoza, Claudia</t>
+          <t>Fajardo, Juan Gabriel</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=55258973100</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=56581610900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Díaz-Mendoza, Claudia (55258973100)</t>
+          <t>Fajardo-Cuadro, Juan Gabriel (56581610900)</t>
         </is>
       </c>
       <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
         <v>3</v>
       </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3505,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3514,86 +4116,107 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="n">
         <v>3</v>
       </c>
-      <c r="Z29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>2</v>
+      <c r="AH29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>57203321995</t>
+          <t>57223851529</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T00021700</t>
+          <t>T00040584</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HERNANDO RAFAEL ALTAMAR MERCADO</t>
+          <t>ELSY MERCEDES DOMINGUEZ DE LA OSSA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Altamar-Mercado, Hernando</t>
+          <t>de la Ossa, Elsy Domínguez</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57203321995</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57223851529</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Altamar-Mercado, Hernando (57203321995)</t>
+          <t>Domínguez-De la Ossa, Elsy (57223851529)</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3614,92 +4237,113 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>3</v>
       </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
+      <c r="AK30" t="n">
         <v>3</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>57220927199</t>
+          <t>57197327858</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>T00010915</t>
+          <t>T00000049</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>JAIRO ENRIQUE SERRANO CASTAÑEDA</t>
+          <t>OSCAR ACEVEDO PATIÑO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Serrano, Jairo E.</t>
+          <t>Acevedo-Patĩno, Oscar</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57220927199</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57197327858</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Serrano, Jairo E. (57220927199)</t>
+          <t>Acevedo, Oscar (57197327858)</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3708,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3726,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3741,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3753,32 +4397,53 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
         <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>57193252278</t>
+          <t>56682785300</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>T00021661</t>
+          <t>T00022128</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JAIRO HUMBERTO CABRERA TOVAR</t>
+          <t>LUZ ALEJANDRA MAGRE COLORADO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3788,17 +4453,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cabrera, Jairo</t>
+          <t>Magre, Luz Alejandra</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57193252278</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=56682785300</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cabrera, Jairo (57193252278)</t>
+          <t>Magre Colorado, Luz A. (56682785300)</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3850,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3862,29 +4527,50 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>57322375300</t>
+          <t>57392556500</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>T00038378</t>
+          <t>T00014731</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JAMES MANUEL PEREZ MORON</t>
+          <t>LINA MARGARITA MARRUGO SALAS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3894,24 +4580,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pérez-Morón, James</t>
+          <t>Marrugo-Salas, Lina Margarita</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57322375300</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57192271754</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Perez-Moron, James (57322375300)</t>
+          <t>Marrugo-Salas, Lina (57392556500)</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3941,10 +4627,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3974,23 +4660,44 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>57205400052</t>
+          <t>57219403758</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>T00012602</t>
+          <t>T00028098</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JENIFER YORIS VASQUEZ AGUILAR</t>
+          <t>MARY JUDITH ARIAS TAPIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4000,27 +4707,27 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Vásquez, Jenifer</t>
+          <t>Arias Tapia, Mary Judith</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57205400052</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57219403758</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Vásquez, Jenifer (57205400052)</t>
+          <t>Arias-Tapia, Mary Judith (57219403758)</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -4038,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -4047,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -4062,147 +4769,189 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>57758796500</t>
+          <t>57205400052</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T00000058</t>
+          <t>T00012602</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JORGE LUIS MUÑIZ OLITE</t>
+          <t>JENIFER YORIS VASQUEZ AGUILAR</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Muñiz-Olite, Jorge Luis</t>
+          <t>Vásquez, Jenifer</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57758796500</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57205400052</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Olite, Jorge Luis Muñiz (57758796500)</t>
+          <t>Vásquez, Jenifer (57205400052)</t>
         </is>
       </c>
       <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>4</v>
       </c>
-      <c r="I35" t="n">
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
         <v>4</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>2</v>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>56581610900</t>
+          <t>57193252278</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>T00007524</t>
+          <t>T00021661</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>JUAN GABRIEL FAJARDO CUADRO</t>
+          <t>JAIRO HUMBERTO CABRERA TOVAR</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4212,24 +4961,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Fajardo, Juan Gabriel</t>
+          <t>Cabrera, Jairo</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=56581610900</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57193252278</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fajardo-Cuadro, Juan Gabriel (56581610900)</t>
+          <t>Cabrera, Jairo (57193252278)</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -4238,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -4247,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -4259,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -4268,67 +5017,88 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>57392556500</t>
+          <t>57220927199</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>T00014731</t>
+          <t>T00010915</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LINA MARGARITA MARRUGO SALAS</t>
+          <t>JAIRO ENRIQUE SERRANO CASTAÑEDA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Marrugo-Salas, Lina Margarita</t>
+          <t>Serrano, Jairo E.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57192271754</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57220927199</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Marrugo-Salas, Lina (57392556500)</t>
+          <t>Serrano, Jairo E. (57220927199)</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -4362,13 +5132,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4377,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -4392,56 +5162,77 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>56682785300</t>
+          <t>57203321995</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>T00022128</t>
+          <t>T00021700</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LUZ ALEJANDRA MAGRE COLORADO</t>
+          <t>HERNANDO RAFAEL ALTAMAR MERCADO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Magre, Luz Alejandra</t>
+          <t>Altamar-Mercado, Hernando</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=56682785300</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57203321995</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Magre Colorado, Luz A. (56682785300)</t>
+          <t>Altamar-Mercado, Hernando (57203321995)</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -4471,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -4483,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -4504,23 +5295,44 @@
         <v>0</v>
       </c>
       <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>57219403758</t>
+          <t>55258973100</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>T00028098</t>
+          <t>T00059175</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MARY JUDITH ARIAS TAPIA</t>
+          <t>CLAUDIA PATRICIA DIAZ MENDOZA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4530,123 +5342,144 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Arias Tapia, Mary Judith</t>
+          <t>Díaz-Mendoza, Claudia</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57219403758</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=55258973100</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Arias-Tapia, Mary Judith (57219403758)</t>
+          <t>Díaz-Mendoza, Claudia (55258973100)</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>3</v>
       </c>
       <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
         <v>3</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
+      <c r="AE39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>57197327858</t>
+          <t>57190688459</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>T00000049</t>
+          <t>T00019348</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>OSCAR ACEVEDO PATIÑO</t>
+          <t>ALBERTO PATIÑO VANEGAS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Acevedo-Patĩno, Oscar</t>
+          <t>Patiño, Alberto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57197327858</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57190688459</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Acevedo, Oscar (57197327858)</t>
+          <t>Patiño-Vanegas, Alberto (57190688459)</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -4659,10 +5492,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4680,10 +5513,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -4695,44 +5528,65 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>57196040759</t>
+          <t>57204842254</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>T00052721</t>
+          <t>T00019354</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PEDRO VAZQUEZ MIRAZ</t>
+          <t>TANIA ISABEL JIMENEZ CASTILLA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4742,33 +5596,33 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Vázquez-Miraz, Pedro</t>
+          <t>Jiménez-Castilla, Tania</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57196040759</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57204842254</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Vázquez-Miraz, Pedro (57196040759)</t>
+          <t>Jiménez-Castilla, Tania (57204842254)</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4777,95 +5631,116 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
         <v>1</v>
       </c>
       <c r="AA41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>57220077867</t>
+          <t>57221229836</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T00000060</t>
+          <t>T00015391</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>VILMA VIVIANA OJEDA CAICEDO</t>
+          <t>MARIA FERNANDA MEDINA REYES</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ojeda-Caicedo, Vilma Viviana</t>
+          <t>Medina, M. F.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57220077867</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57221229836</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ojeda-Caicedo, Vilma V. (57220077867)</t>
+          <t>Medina-Reyes, María Fernanda (57221229836)</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -4874,13 +5749,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -4889,13 +5764,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -4910,68 +5785,89 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="n">
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>57223851529</t>
+          <t>57918628600</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>T00040584</t>
+          <t>T00057400</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ELSY MERCEDES DOMINGUEZ DE LA OSSA</t>
+          <t>JORGE LUIS VILLALBA ACEVEDO</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>de la Ossa, Elsy Domínguez</t>
+          <t>Villalba-Acevedo, Jorge Luis</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57223851529</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57918628600</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Domínguez-De la Ossa, Elsy (57223851529)</t>
+          <t>Villalba-Acevedo, Jorge Luis (57918628600)</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4992,19 +5888,19 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -5016,74 +5912,95 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>57189892062</t>
+          <t>58068069000</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>T00076408</t>
+          <t>T00000054</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ENRIQUE PEREIRA BATISTA</t>
+          <t>WILLIAM ARELLANO CARTAGENA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Pereira Batista, Enrique</t>
+          <t>Arellano-Cartagena, William</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57189892062</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=58068069000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Pereira-Batista, Enrique (57189892062)</t>
+          <t>Arellano-Cartagena, William (58068069000)</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -5104,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -5116,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -5125,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
         <v>1</v>
@@ -5141,49 +6058,70 @@
       </c>
       <c r="AD44" t="n">
         <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>57205658483</t>
+          <t>55783129400</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>T00000020</t>
+          <t>T00000064</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>JORGE ELIECER DUQUE PARDO</t>
+          <t>MOISES RAMON QUINTANA ALVAREZ</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Duque, Jorge Eliecer</t>
+          <t>Quintana, Moisés</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57205658483</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=55783129400</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Duque, J. (57205658483)</t>
+          <t>Quintana, Moisés (55783129400)</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -5246,43 +6184,64 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>58068307100</t>
+          <t>57218294431</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>T00000030</t>
+          <t>T00051182</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>JORGE LUIS ALVIS ARRIETA</t>
+          <t>SERGIO VILLAR SALINAS</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Alvis-Arrieta, Jorge</t>
+          <t>Villar-Salinas, Sergio</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=58068307100</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57218294431</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alvis-Arrieta, Jorge (58068307100)</t>
+          <t>Villar-Salinas, Sergio (57218294431)</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -5307,16 +6266,16 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -5328,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5343,32 +6302,53 @@
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>57197807415</t>
+          <t>57222278899</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>T00000413</t>
+          <t>T00047950</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>JORGE LUIS DEL RIO CORTINA</t>
+          <t>KATLEEN PAOLA MARUN UPARELA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5378,24 +6358,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Del Rio Cortina, Jorge</t>
+          <t>Marún-Uparela, Katleen</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57197807415</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57222278899</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Del Río Cortina, Jorge (57197807415)</t>
+          <t>Marún-Uparela, Katleen (57222278899)</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -5425,76 +6405,97 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>57918628600</t>
+          <t>57156565000</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>T00057400</t>
+          <t>T00076376</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>JORGE LUIS VILLALBA ACEVEDO</t>
+          <t>YADY TATIANA SOLANO CORREA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Villalba-Acevedo, Jorge Luis</t>
+          <t>Solano-Correa, Yady Tatiana</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57918628600</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57156565000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Villalba-Acevedo, Jorge Luis (57918628600)</t>
+          <t>Solano-Correa, Yady Tatiana (57156565000)</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -5504,7 +6505,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -5531,22 +6532,22 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
@@ -5558,29 +6559,50 @@
         <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>57222278899</t>
+          <t>57197807415</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>T00047950</t>
+          <t>T00000413</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>KATLEEN PAOLA MARUN UPARELA</t>
+          <t>JORGE LUIS DEL RIO CORTINA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5590,24 +6612,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Marún-Uparela, Katleen</t>
+          <t>Del Rio Cortina, Jorge</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57222278899</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57197807415</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Marún-Uparela, Katleen (57222278899)</t>
+          <t>Del Río Cortina, Jorge (57197807415)</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -5637,28 +6659,28 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
@@ -5667,26 +6689,47 @@
         <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>57218294431</t>
+          <t>57205658483</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>T00051182</t>
+          <t>T00000020</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SERGIO VILLAR SALINAS</t>
+          <t>JORGE ELIECER DUQUE PARDO</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5696,24 +6739,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Villar-Salinas, Sergio</t>
+          <t>Duque, Jorge Eliecer</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57218294431</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57205658483</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Villar-Salinas, Sergio (57218294431)</t>
+          <t>Duque, J. (57205658483)</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -5731,10 +6774,10 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -5767,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB50" t="n">
         <v>2</v>
@@ -5777,49 +6820,70 @@
       </c>
       <c r="AD50" t="n">
         <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>57206773929</t>
+          <t>58068307100</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>T00055756</t>
+          <t>T00000030</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TANIA LUCIA COBOS COBOS</t>
+          <t>JORGE LUIS ALVIS ARRIETA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cobos, Tania Lucía</t>
+          <t>Alvis-Arrieta, Jorge</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57206773929</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=58068307100</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Cobos, Tania Lucía (57206773929)</t>
+          <t>Alvis-Arrieta, Jorge (58068307100)</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -5843,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
         <v>1</v>
@@ -5855,10 +6919,10 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
@@ -5873,59 +6937,80 @@
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>58068069000</t>
+          <t>57204847841</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>T00000054</t>
+          <t>T00064566</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>WILLIAM ARELLANO CARTAGENA</t>
+          <t>HAROLD ALBERTO RODRIGUEZ ARIAS</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Arellano-Cartagena, William</t>
+          <t>Rodríguez-Arias, Harold A.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=58068069000</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57204847841</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Arellano-Cartagena, William (58068069000)</t>
+          <t>Rodriguez-Arias, Andy J. (57204847841)</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -5952,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
@@ -5964,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -5979,52 +7064,73 @@
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>57216868622</t>
+          <t>57219506381</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>T00040585</t>
+          <t>T00053397</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ADOLFO BALTAR MORENO</t>
+          <t>CARLOS RAFAEL PAYARES GUEVARA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Baltar-Moreno, Adolfo</t>
+          <t>Guevara, Carlos R.Payares</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57216868622</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57225975125&amp;origin=recordpage</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Moreno, Adolfo Baltar (57216868622)</t>
+          <t>Payares Guevara, Carlos R. (57219506381)</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -6079,10 +7185,10 @@
         <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA53" t="n">
         <v>0</v>
@@ -6091,46 +7197,67 @@
         <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>58523557700</t>
+          <t>58954857900</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>T00002456</t>
+          <t>T00057359</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ALFREDO MIGUEL ABUCHAR CURI</t>
+          <t>AUGUSTO ANDRES ALEAN ROMERO</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Abuchar-Curi, Alfredo Miguel</t>
+          <t>Aleán–Romero, Andrés</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=58523557700</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=58954857900&amp;origin=recordpage</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Abuchar-Curi, Alfredo Miguel (58523557700)</t>
+          <t>Aleán–Romero, Andrés (58954857900)</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -6155,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -6173,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -6197,59 +7324,80 @@
         <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>57204842254</t>
+          <t>57903699900</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>T00019354</t>
+          <t>T00022797</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TANIA ISABEL JIMENEZ CASTILLA</t>
+          <t>RAFAEL DAVID MENDEZ ANILLO</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Jiménez-Castilla, Tania</t>
+          <t>Méndez-Anillo, Rafael D.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57204842254</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57903699900&amp;origin=recordpage</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Jiménez-Castilla, Tania (57204842254)</t>
+          <t>Méndez-Anillo, Rafael D. (57903699900)</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -6294,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="Z55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA55" t="n">
         <v>0</v>
@@ -6306,50 +7454,71 @@
         <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>58618811100</t>
+          <t>57039103600</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>T00000083</t>
+          <t>T00047675</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DANILO LUSBIN ARIZA RUA</t>
+          <t>LAURA PATRICIA MARTINEZ BUELVAS</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ariza-Rua, Danilo Lusbin</t>
+          <t>Martínez-Buelvas, Laura Patricia</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=58618811100</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57039103600</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ariza-Rua, Danilo Lusbin (58618811100)</t>
+          <t>Martínez-Buelvas, Laura (57039103600)</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -6379,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -6394,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
         <v>0</v>
@@ -6406,56 +7575,77 @@
         <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC56" t="n">
         <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>57201036449</t>
+          <t>58803522300</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>T00012429</t>
+          <t>T00015209</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DAVID JAVIER FORTICH PEREZ</t>
+          <t>MAURO ANTONIO GONZALEZ SIERRA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Fortich Pérez, David J.</t>
+          <t>Gonzalez-Sierra, Mauro A.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57201036449</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=58803522300</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Fortich-Pérez, David (57201036449)</t>
+          <t>Gonzalez-Sierra, Mauro A. (58803522300)</t>
         </is>
       </c>
       <c r="H57" t="n">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -6473,19 +7663,19 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
@@ -6500,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" t="n">
         <v>0</v>
@@ -6509,59 +7699,80 @@
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC57" t="n">
         <v>0</v>
       </c>
       <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>57209248085</t>
+          <t>58660078000</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>T00021662</t>
+          <t>T00000073</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EDGARDO WILLIAM ARRIETA ORTIZ</t>
+          <t>AARÓN EDUARDO ESPINOSA ESPINOSA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Arrieta, O. E.W.</t>
+          <t>Espinosa-Espinos, Aaron</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57209248085</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57211108028</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Arrieta, O.E.W. (57209248085)</t>
+          <t>Espinosa-Espinos, Aaron (58660078000)</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -6603,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -6624,50 +7835,71 @@
         <v>0</v>
       </c>
       <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>57212006168</t>
+          <t>57222223605</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>T00000057</t>
+          <t>T00055292</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EDUARDO GOMEZ VASQUEZ</t>
+          <t>MARCOS RICARDO POSADA LLORENTE</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Gomez, Eduardo</t>
+          <t>Llorente, Marcos Ricardo Posada</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57212006168</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57222223605</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Gomez, Eduardo (57212006168)</t>
+          <t>Llorente, Marcos Ricardo Posada (57222223605)</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -6730,23 +7962,44 @@
         <v>0</v>
       </c>
       <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>57427876200</t>
+          <t>57218297655</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>T00000431</t>
+          <t>T00020031</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ELIAS RAFAEL GENEY CASTRO</t>
+          <t>LUIS CARLOS DIAZ CANEDO</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6756,24 +8009,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Geney-Castro, Elías</t>
+          <t>Díaz-Canedo, Luis C.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57427876200</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57218297655&amp;origin=recordpage</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Geney, Elías Rafael (57427876200)</t>
+          <t>Díaz-Canedo, Luis C. (57218297655)</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -6782,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -6815,16 +8068,16 @@
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA60" t="n">
         <v>0</v>
@@ -6833,46 +8086,67 @@
         <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>57204847841</t>
+          <t>57195913859</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>T00064566</t>
+          <t>T00019346</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HAROLD ALBERTO RODRIGUEZ ARIAS</t>
+          <t>JULIO SEFERINO HURTADO MARQUEZ</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Rodríguez-Arias, Harold A.</t>
+          <t>Hurtado, Julio Seferino</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57204847841</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57195913859</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Rodriguez-Arias, Andy J. (57204847841)</t>
+          <t>Hurtado, Julio (57195913859)</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -6942,50 +8216,71 @@
         <v>0</v>
       </c>
       <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>57195913859</t>
+          <t>57427876200</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>T00019346</t>
+          <t>T00000431</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>JULIO SEFERINO HURTADO MARQUEZ</t>
+          <t>ELIAS RAFAEL GENEY CASTRO</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hurtado, Julio Seferino</t>
+          <t>Geney-Castro, Elías</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57195913859</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57427876200</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hurtado, Julio (57195913859)</t>
+          <t>Geney, Elías Rafael (57427876200)</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -6994,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -7027,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
@@ -7048,50 +8343,71 @@
         <v>0</v>
       </c>
       <c r="AD62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>57218297655</t>
+          <t>57212006168</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>T00020031</t>
+          <t>T00000057</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LUIS CARLOS DIAZ CANEDO</t>
+          <t>EDUARDO GOMEZ VASQUEZ</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Díaz-Canedo, Luis C.</t>
+          <t>Gomez, Eduardo</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57218297655&amp;origin=recordpage</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57212006168</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Díaz-Canedo, Luis C. (57218297655)</t>
+          <t>Gomez, Eduardo (57212006168)</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -7148,49 +8464,70 @@
         <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63" t="n">
         <v>0</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>57222223605</t>
+          <t>57209248085</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>T00055292</t>
+          <t>T00021662</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MARCOS RICARDO POSADA LLORENTE</t>
+          <t>EDGARDO WILLIAM ARRIETA ORTIZ</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Llorente, Marcos Ricardo Posada</t>
+          <t>Arrieta, O. E.W.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57222223605</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57209248085</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Llorente, Marcos Ricardo Posada (57222223605)</t>
+          <t>Arrieta, O.E.W. (57209248085)</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -7260,50 +8597,71 @@
         <v>0</v>
       </c>
       <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>57221229836</t>
+          <t>57201036449</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>T00015391</t>
+          <t>T00012429</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA MEDINA REYES</t>
+          <t>DAVID JAVIER FORTICH PEREZ</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Medina, M. F.</t>
+          <t>Fortich Pérez, David J.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57221229836</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57201036449</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Medina-Reyes, María Fernanda (57221229836)</t>
+          <t>Fortich-Pérez, David (57201036449)</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -7312,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -7324,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -7351,58 +8709,79 @@
         <v>0</v>
       </c>
       <c r="Y65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC65" t="n">
         <v>0</v>
       </c>
       <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>58803522300</t>
+          <t>58618811100</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>T00015209</t>
+          <t>T00000083</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MAURO ANTONIO GONZALEZ SIERRA</t>
+          <t>DANILO LUSBIN ARIZA RUA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Gonzalez-Sierra, Mauro A.</t>
+          <t>Ariza-Rua, Danilo Lusbin</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=58803522300</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=58618811100</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Gonzalez-Sierra, Mauro A. (58803522300)</t>
+          <t>Ariza-Rua, Danilo Lusbin (58618811100)</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -7427,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -7439,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T66" t="n">
         <v>0</v>
@@ -7454,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y66" t="n">
         <v>0</v>
@@ -7463,59 +8842,80 @@
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC66" t="n">
         <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>55783129400</t>
+          <t>57322375300</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>T00000064</t>
+          <t>T00038378</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MOISES RAMON QUINTANA ALVAREZ</t>
+          <t>JAMES MANUEL PEREZ MORON</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Quintana, Moisés</t>
+          <t>Pérez-Morón, James</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=55783129400</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57322375300</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Quintana, Moisés (55783129400)</t>
+          <t>Perez-Moron, James (57322375300)</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -7575,26 +8975,47 @@
         <v>0</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>57903699900</t>
+          <t>58523557700</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>T00022797</t>
+          <t>T00002456</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>RAFAEL DAVID MENDEZ ANILLO</t>
+          <t>ALFREDO MIGUEL ABUCHAR CURI</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -7604,17 +9025,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Méndez-Anillo, Rafael D.</t>
+          <t>Abuchar-Curi, Alfredo Miguel</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57903699900&amp;origin=recordpage</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=58523557700</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Méndez-Anillo, Rafael D. (57903699900)</t>
+          <t>Abuchar-Curi, Alfredo Miguel (58523557700)</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -7624,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -7657,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -7669,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA68" t="n">
         <v>0</v>
@@ -7684,43 +9105,64 @@
         <v>0</v>
       </c>
       <c r="AD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>58954857900</t>
+          <t>57216868622</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>T00057359</t>
+          <t>T00040585</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>AUGUSTO ANDRES ALEAN ROMERO</t>
+          <t>ADOLFO BALTAR MORENO</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Aleán–Romero, Andrés</t>
+          <t>Baltar-Moreno, Adolfo</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=58954857900&amp;origin=recordpage</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57216868622</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Aleán–Romero, Andrés (58954857900)</t>
+          <t>Moreno, Adolfo Baltar (57216868622)</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -7733,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -7745,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -7766,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
@@ -7778,10 +9220,10 @@
         <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB69" t="n">
         <v>1</v>
@@ -7790,7 +9232,28 @@
         <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -7890,29 +9353,50 @@
         <v>0</v>
       </c>
       <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
         <v>3</v>
       </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
       <c r="AD70" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>57219506381</t>
+          <t>57189892062</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>T00053397</t>
+          <t>T00076408</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CARLOS RAFAEL PAYARES GUEVARA</t>
+          <t>ENRIQUE PEREIRA BATISTA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -7922,24 +9406,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Guevara, Carlos R.Payares</t>
+          <t>Pereira Batista, Enrique</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57225975125&amp;origin=recordpage</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57189892062</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Payares Guevara, Carlos R. (57219506381)</t>
+          <t>Pereira-Batista, Enrique (57189892062)</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -7978,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
@@ -7987,10 +9471,10 @@
         <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA71" t="n">
         <v>0</v>
@@ -7999,10 +9483,31 @@
         <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD71" t="n">
         <v>1</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -8093,10 +9598,10 @@
         <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA72" t="n">
         <v>0</v>
@@ -8105,10 +9610,31 @@
         <v>0</v>
       </c>
       <c r="AC72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD72" t="n">
         <v>1</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -8211,10 +9737,31 @@
         <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -8318,7 +9865,28 @@
         <v>0</v>
       </c>
       <c r="AD74" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -8409,10 +9977,10 @@
         <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA75" t="n">
         <v>0</v>
@@ -8424,6 +9992,27 @@
         <v>0</v>
       </c>
       <c r="AD75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK75" t="n">
         <v>0</v>
       </c>
     </row>

--- a/MidataMiScript.xlsx
+++ b/MidataMiScript.xlsx
@@ -1512,65 +1512,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>56674579200</t>
+          <t>57210822856</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T00020729</t>
+          <t>T00000243</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ROSA LEONOR ACEVEDO BARRIOS</t>
+          <t>SONIA HELENA CONTRERAS ORTIZ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Acevedo-Barrios, R. L.</t>
+          <t>Contreras-Ortiz, Sonia H.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=56674579200</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57210822856</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Acevedo-Barrios, R. (56674579200)</t>
+          <t>Contreras-Ortiz, S.H. (57210822856)</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1594,43 +1594,43 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD9" t="n">
         <v>3</v>
       </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2</v>
-      </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
         <v>5</v>
@@ -1639,80 +1639,80 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>57210822856</t>
+          <t>56674579200</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T00000243</t>
+          <t>T00020729</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SONIA HELENA CONTRERAS ORTIZ</t>
+          <t>ROSA LEONOR ACEVEDO BARRIOS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Contreras-Ortiz, Sonia H.</t>
+          <t>Acevedo-Barrios, R. L.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57210822856</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=56674579200</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Contreras-Ortiz, S.H. (57210822856)</t>
+          <t>Acevedo-Barrios, R. (56674579200)</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>9</v>
       </c>
       <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>8</v>
-      </c>
       <c r="T10" t="n">
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1721,43 +1721,43 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
         <v>1</v>
       </c>
       <c r="AC10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF10" t="n">
         <v>3</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>8</v>
       </c>
       <c r="AH10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK10" t="n">
         <v>5</v>
@@ -2655,164 +2655,164 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>57202285682</t>
+          <t>57196040759</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T00008436</t>
+          <t>T00052721</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EDWIN ALEXANDER PUERTAS DEL CASTILLO</t>
+          <t>PEDRO VAZQUEZ MIRAZ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Puertas, Edwin</t>
+          <t>Vázquez-Miraz, Pedro</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57202285682</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57196040759</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Puertas, Edwin (57202285682)</t>
+          <t>Vázquez-Miraz, Pedro (57196040759)</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
       <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>4</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>12</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1</v>
-      </c>
       <c r="AK18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>57196040759</t>
+          <t>56581610900</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T00052721</t>
+          <t>T00007524</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PEDRO VAZQUEZ MIRAZ</t>
+          <t>JUAN GABRIEL FAJARDO CUADRO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vázquez-Miraz, Pedro</t>
+          <t>Fajardo, Juan Gabriel</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57196040759</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=56581610900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Vázquez-Miraz, Pedro (57196040759)</t>
+          <t>Fajardo-Cuadro, Juan Gabriel (56581610900)</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2843,43 +2843,43 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>3</v>
       </c>
-      <c r="R19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -2888,19 +2888,19 @@
         <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="n">
         <v>4</v>
@@ -2909,171 +2909,171 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>57220077867</t>
+          <t>57219403758</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>T00000060</t>
+          <t>T00028098</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VILMA VIVIANA OJEDA CAICEDO</t>
+          <t>MARY JUDITH ARIAS TAPIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ojeda-Caicedo, Vilma Viviana</t>
+          <t>Arias Tapia, Mary Judith</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57220077867</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57219403758</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ojeda-Caicedo, Vilma V. (57220077867)</t>
+          <t>Arias-Tapia, Mary Judith (57219403758)</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>4</v>
       </c>
       <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>3</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="AK20" t="n">
         <v>3</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>57200615582</t>
+          <t>57220077867</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>T00040553</t>
+          <t>T00000060</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MILTON CESAR GUERRERO PAJARO</t>
+          <t>VILMA VIVIANA OJEDA CAICEDO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Guerrero, Milton</t>
+          <t>Ojeda-Caicedo, Vilma Viviana</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57200615582</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57220077867</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Guerrero, Milton (57200615582)</t>
+          <t>Ojeda-Caicedo, Vilma V. (57220077867)</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -3103,13 +3103,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3118,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -3130,70 +3130,70 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>57350116000</t>
+          <t>57200615582</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T00055760</t>
+          <t>T00040553</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JEOVANNY DE JESUS MUENTES ACEVEDO</t>
+          <t>MILTON CESAR GUERRERO PAJARO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Acevedo, Jeovanny Muentes</t>
+          <t>Guerrero, Milton</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57222990626</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57200615582</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Muentes, J. (57350116000)</t>
+          <t>Guerrero, Milton (57200615582)</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -3203,13 +3203,13 @@
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3236,13 +3236,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -3254,25 +3254,25 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
         <v>1</v>
@@ -3290,62 +3290,62 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>57192930752</t>
+          <t>57206773929</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>T00019649</t>
+          <t>T00055756</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>KAROL PATRICIA GUTIERREZ RUIZ</t>
+          <t>TANIA LUCIA COBOS COBOS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gutiérrez-Ruiz, Karol Patricia</t>
+          <t>Cobos, Tania Lucía</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57192930752</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57206773929</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Gutiérrez-Ruiz, K. (57192930752)</t>
+          <t>Cobos, Tania Lucía (57206773929)</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -3363,13 +3363,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3381,25 +3381,25 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH23" t="n">
         <v>1</v>
@@ -3408,26 +3408,26 @@
         <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>57188841051</t>
+          <t>57758796500</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T00053267</t>
+          <t>T00000058</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EDISSON CHAVARRO MESA</t>
+          <t>JORGE LUIS MUÑIZ OLITE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3437,24 +3437,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Chavarro-Mesa, Edisson</t>
+          <t>Muñiz-Olite, Jorge Luis</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57188841051</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57758796500</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chavarro-Mesa, Edisson (57188841051)</t>
+          <t>Olite, Jorge Luis Muñiz (57758796500)</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -3484,37 +3484,37 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3526,16 +3526,16 @@
         <v>1</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK24" t="n">
         <v>2</v>
@@ -3544,17 +3544,17 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>56380539800</t>
+          <t>57192930752</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T00009384</t>
+          <t>T00019649</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DANIEL TORO GONZALEZ</t>
+          <t>KAROL PATRICIA GUTIERREZ RUIZ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3564,42 +3564,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Toro-González, Daniel</t>
+          <t>Gutiérrez-Ruiz, Karol Patricia</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=56380539800</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57192930752</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Toro Gonzalez, Daniel (56380539800)</t>
+          <t>Gutiérrez-Ruiz, K. (57192930752)</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -3623,101 +3623,101 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>56801043600</t>
+          <t>57350116000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>T00069460</t>
+          <t>T00055760</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ARGEMIRO PALENCIA DIAZ</t>
+          <t>JEOVANNY DE JESUS MUENTES ACEVEDO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Palencia Díaz, Argemiro</t>
+          <t>Acevedo, Jeovanny Muentes</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=56801043600</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57222990626</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Día, A. Palencia (56801043600)</t>
+          <t>Muentes, J. (57350116000)</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -3744,19 +3744,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3771,16 +3771,16 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH26" t="n">
         <v>1</v>
@@ -3789,53 +3789,53 @@
         <v>1</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>57758796500</t>
+          <t>56801043600</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T00000058</t>
+          <t>T00069460</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JORGE LUIS MUÑIZ OLITE</t>
+          <t>ARGEMIRO PALENCIA DIAZ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Muñiz-Olite, Jorge Luis</t>
+          <t>Palencia Díaz, Argemiro</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57758796500</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=56801043600</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Olite, Jorge Luis Muñiz (57758796500)</t>
+          <t>Día, A. Palencia (56801043600)</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
         <v>1</v>
@@ -3904,65 +3904,65 @@
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AG27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>57206773929</t>
+          <t>56380539800</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>T00055756</t>
+          <t>T00009384</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TANIA LUCIA COBOS COBOS</t>
+          <t>DANIEL TORO GONZALEZ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cobos, Tania Lucía</t>
+          <t>Toro-González, Daniel</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57206773929</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=56380539800</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cobos, Tania Lucía (57206773929)</t>
+          <t>Toro Gonzalez, Daniel (56380539800)</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -4031,65 +4031,65 @@
         <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>56581610900</t>
+          <t>57188841051</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>T00007524</t>
+          <t>T00053267</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JUAN GABRIEL FAJARDO CUADRO</t>
+          <t>EDISSON CHAVARRO MESA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fajardo, Juan Gabriel</t>
+          <t>Chavarro-Mesa, Edisson</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=56581610900</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57188841051</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Fajardo-Cuadro, Juan Gabriel (56581610900)</t>
+          <t>Chavarro-Mesa, Edisson (57188841051)</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -4107,19 +4107,19 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -4128,22 +4128,22 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -4152,152 +4152,152 @@
         <v>2</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
         <v>1</v>
       </c>
       <c r="AG29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>57223851529</t>
+          <t>57202285682</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T00040584</t>
+          <t>T00008436</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ELSY MERCEDES DOMINGUEZ DE LA OSSA</t>
+          <t>EDWIN ALEXANDER PUERTAS DEL CASTILLO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>de la Ossa, Elsy Domínguez</t>
+          <t>Puertas, Edwin</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57223851529</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57202285682</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Domínguez-De la Ossa, Elsy (57223851529)</t>
+          <t>Puertas, Edwin (57202285682)</t>
         </is>
       </c>
       <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
         <v>3</v>
       </c>
-      <c r="I30" t="n">
+      <c r="S30" t="n">
+        <v>12</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF30" t="n">
         <v>3</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>4</v>
-      </c>
       <c r="AG30" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK30" t="n">
         <v>3</v>
@@ -4306,17 +4306,17 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>57197327858</t>
+          <t>57205400052</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>T00000049</t>
+          <t>T00012602</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>OSCAR ACEVEDO PATIÑO</t>
+          <t>JENIFER YORIS VASQUEZ AGUILAR</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4326,17 +4326,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Acevedo-Patĩno, Oscar</t>
+          <t>Vásquez, Jenifer</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57197327858</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57205400052</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Acevedo, Oscar (57197327858)</t>
+          <t>Vásquez, Jenifer (57205400052)</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -4349,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -4370,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -4412,38 +4412,38 @@
         <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>56682785300</t>
+          <t>57197327858</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>T00022128</t>
+          <t>T00000049</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LUZ ALEJANDRA MAGRE COLORADO</t>
+          <t>OSCAR ACEVEDO PATIÑO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4453,17 +4453,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Magre, Luz Alejandra</t>
+          <t>Acevedo-Patĩno, Oscar</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=56682785300</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57197327858</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Magre Colorado, Luz A. (56682785300)</t>
+          <t>Acevedo, Oscar (57197327858)</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -4497,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -4530,19 +4530,19 @@
         <v>1</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -4554,50 +4554,50 @@
         <v>1</v>
       </c>
       <c r="AK32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>57392556500</t>
+          <t>56682785300</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>T00014731</t>
+          <t>T00022128</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LINA MARGARITA MARRUGO SALAS</t>
+          <t>LUZ ALEJANDRA MAGRE COLORADO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Marrugo-Salas, Lina Margarita</t>
+          <t>Magre, Luz Alejandra</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57192271754</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=56682785300</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Marrugo-Salas, Lina (57392556500)</t>
+          <t>Magre Colorado, Luz A. (56682785300)</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -4627,10 +4627,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
@@ -4669,65 +4669,65 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>57219403758</t>
+          <t>57392556500</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>T00028098</t>
+          <t>T00014731</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MARY JUDITH ARIAS TAPIA</t>
+          <t>LINA MARGARITA MARRUGO SALAS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Arias Tapia, Mary Judith</t>
+          <t>Marrugo-Salas, Lina Margarita</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57219403758</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57192271754</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Arias-Tapia, Mary Judith (57219403758)</t>
+          <t>Marrugo-Salas, Lina (57392556500)</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -4754,10 +4754,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -4787,44 +4787,44 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>57205400052</t>
+          <t>57193252278</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T00012602</t>
+          <t>T00021661</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JENIFER YORIS VASQUEZ AGUILAR</t>
+          <t>JAIRO HUMBERTO CABRERA TOVAR</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4834,17 +4834,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Vásquez, Jenifer</t>
+          <t>Cabrera, Jairo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57205400052</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57193252278</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Vásquez, Jenifer (57205400052)</t>
+          <t>Cabrera, Jairo (57193252278)</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
@@ -4923,62 +4923,62 @@
         <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>57193252278</t>
+          <t>57220927199</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>T00021661</t>
+          <t>T00010915</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>JAIRO HUMBERTO CABRERA TOVAR</t>
+          <t>JAIRO ENRIQUE SERRANO CASTAÑEDA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cabrera, Jairo</t>
+          <t>Serrano, Jairo E.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57193252278</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57220927199</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cabrera, Jairo (57193252278)</t>
+          <t>Serrano, Jairo E. (57220927199)</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -5020,10 +5020,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -5047,13 +5047,13 @@
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI36" t="n">
         <v>2</v>
@@ -5068,44 +5068,44 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>57220927199</t>
+          <t>57203321995</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>T00010915</t>
+          <t>T00021700</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JAIRO ENRIQUE SERRANO CASTAÑEDA</t>
+          <t>HERNANDO RAFAEL ALTAMAR MERCADO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Serrano, Jairo E.</t>
+          <t>Altamar-Mercado, Hernando</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57220927199</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57203321995</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Serrano, Jairo E. (57220927199)</t>
+          <t>Altamar-Mercado, Hernando (57203321995)</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -5132,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
         <v>0</v>
@@ -5174,71 +5174,71 @@
         <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>57203321995</t>
+          <t>55258973100</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>T00021700</t>
+          <t>T00059175</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HERNANDO RAFAEL ALTAMAR MERCADO</t>
+          <t>CLAUDIA PATRICIA DIAZ MENDOZA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Altamar-Mercado, Hernando</t>
+          <t>Díaz-Mendoza, Claudia</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57203321995</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=55258973100</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Altamar-Mercado, Hernando (57203321995)</t>
+          <t>Díaz-Mendoza, Claudia (55258973100)</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5259,13 +5259,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -5274,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -5289,80 +5289,80 @@
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" t="n">
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH38" t="n">
         <v>1</v>
       </c>
       <c r="AI38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>55258973100</t>
+          <t>57190688459</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>T00059175</t>
+          <t>T00019348</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CLAUDIA PATRICIA DIAZ MENDOZA</t>
+          <t>ALBERTO PATIÑO VANEGAS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Díaz-Mendoza, Claudia</t>
+          <t>Patiño, Alberto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=55258973100</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57190688459</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Díaz-Mendoza, Claudia (55258973100)</t>
+          <t>Patiño-Vanegas, Alberto (57190688459)</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -5386,13 +5386,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -5401,10 +5401,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -5416,31 +5416,31 @@
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH39" t="n">
         <v>1</v>
       </c>
       <c r="AI39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39" t="n">
         <v>1</v>
@@ -5449,50 +5449,50 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>57190688459</t>
+          <t>57223851529</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>T00019348</t>
+          <t>T00040584</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ALBERTO PATIÑO VANEGAS</t>
+          <t>ELSY MERCEDES DOMINGUEZ DE LA OSSA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Patiño, Alberto</t>
+          <t>de la Ossa, Elsy Domínguez</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57190688459</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57223851529</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Patiño-Vanegas, Alberto (57190688459)</t>
+          <t>Domínguez-De la Ossa, Elsy (57223851529)</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5507,16 +5507,16 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -5528,65 +5528,65 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
         <v>4</v>
       </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
       <c r="AG40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>57204842254</t>
+          <t>58068069000</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>T00019354</t>
+          <t>T00000054</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TANIA ISABEL JIMENEZ CASTILLA</t>
+          <t>WILLIAM ARELLANO CARTAGENA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5596,30 +5596,30 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jiménez-Castilla, Tania</t>
+          <t>Arellano-Cartagena, William</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57204842254</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=58068069000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Jiménez-Castilla, Tania (57204842254)</t>
+          <t>Arellano-Cartagena, William (58068069000)</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -5676,22 +5676,22 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41" t="n">
         <v>1</v>
@@ -5703,44 +5703,44 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>57221229836</t>
+          <t>57218294431</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T00015391</t>
+          <t>T00051182</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA MEDINA REYES</t>
+          <t>SERGIO VILLAR SALINAS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Medina, M. F.</t>
+          <t>Villar-Salinas, Sergio</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57221229836</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57218294431</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Medina-Reyes, María Fernanda (57221229836)</t>
+          <t>Villar-Salinas, Sergio (57218294431)</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -5758,13 +5758,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
         <v>0</v>
@@ -5803,16 +5803,16 @@
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH42" t="n">
         <v>0</v>
@@ -5821,26 +5821,26 @@
         <v>0</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>57918628600</t>
+          <t>55783129400</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>T00057400</t>
+          <t>T00000064</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JORGE LUIS VILLALBA ACEVEDO</t>
+          <t>MOISES RAMON QUINTANA ALVAREZ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5850,24 +5850,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Villalba-Acevedo, Jorge Luis</t>
+          <t>Quintana, Moisés</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57918628600</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=55783129400</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Villalba-Acevedo, Jorge Luis (57918628600)</t>
+          <t>Quintana, Moisés (55783129400)</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -5897,10 +5897,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -5912,19 +5912,19 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
@@ -5939,55 +5939,55 @@
         <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>58068069000</t>
+          <t>57918628600</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>T00000054</t>
+          <t>T00057400</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>WILLIAM ARELLANO CARTAGENA</t>
+          <t>JORGE LUIS VILLALBA ACEVEDO</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Arellano-Cartagena, William</t>
+          <t>Villalba-Acevedo, Jorge Luis</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=58068069000</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57918628600</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Arellano-Cartagena, William (58068069000)</t>
+          <t>Villalba-Acevedo, Jorge Luis (57918628600)</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -6021,25 +6021,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" t="n">
         <v>0</v>
@@ -6063,65 +6063,65 @@
         <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH44" t="n">
         <v>1</v>
       </c>
       <c r="AI44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>55783129400</t>
+          <t>57221229836</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>T00000064</t>
+          <t>T00015391</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MOISES RAMON QUINTANA ALVAREZ</t>
+          <t>MARIA FERNANDA MEDINA REYES</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Quintana, Moisés</t>
+          <t>Medina, M. F.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=55783129400</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57221229836</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Quintana, Moisés (55783129400)</t>
+          <t>Medina-Reyes, María Fernanda (57221229836)</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45" t="n">
         <v>0</v>
@@ -6184,16 +6184,16 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45" t="n">
         <v>0</v>
@@ -6202,59 +6202,59 @@
         <v>0</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>57218294431</t>
+          <t>57204842254</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>T00051182</t>
+          <t>T00019354</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SERGIO VILLAR SALINAS</t>
+          <t>TANIA ISABEL JIMENEZ CASTILLA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Villar-Salinas, Sergio</t>
+          <t>Jiménez-Castilla, Tania</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57218294431</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57204842254</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Villar-Salinas, Sergio (57218294431)</t>
+          <t>Jiménez-Castilla, Tania (57204842254)</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6266,10 +6266,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
@@ -6311,16 +6311,16 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
         <v>0</v>
@@ -6329,10 +6329,10 @@
         <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">

--- a/MidataMiScript.xlsx
+++ b/MidataMiScript.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK75"/>
+  <dimension ref="A1:AK76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,144 +623,144 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>24329839300</t>
+          <t>57156565000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T00013767</t>
+          <t>T00076376</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ANDRES GUILLERMO MARRUGO HERNANDEZ</t>
+          <t>YADY TATIANA SOLANO CORREA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Marrugo, Andrés G.</t>
+          <t>Solano-Correa, Yady Tatiana</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=24329839300</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57156565000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Marrugo, Andres G. (24329839300)</t>
+          <t>Solano-Correa, Yady Tatiana (57156565000)</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>6</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Y2" t="n">
         <v>5</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>11</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH2" t="n">
         <v>4</v>
       </c>
-      <c r="AC2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>5</v>
       </c>
-      <c r="AI2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>6</v>
-      </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>14622047600</t>
+          <t>24329839300</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T00057322</t>
+          <t>T00013767</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JORGELINA CECILIA PASQUALINO </t>
+          <t>ANDRES GUILLERMO MARRUGO HERNANDEZ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -770,27 +770,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pasqualino, Jorgelina C.</t>
+          <t>Marrugo, Andrés G.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=14622047600</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=24329839300</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pasqualino, Jorgelina (14622047600)</t>
+          <t>Marrugo, Andres G. (24329839300)</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -805,22 +805,22 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
@@ -829,65 +829,65 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>57194034904</t>
+          <t>14622047600</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T00014261</t>
+          <t>T00057322</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HOLMAN OSPINA MATEUS</t>
+          <t xml:space="preserve">JORGELINA CECILIA PASQUALINO </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -897,24 +897,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ospina-Mateus, Holman</t>
+          <t>Pasqualino, Jorgelina C.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57194034904</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=14622047600</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ospina-Mateus, Holman (57194034904)</t>
+          <t>Pasqualino, Jorgelina (14622047600)</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -944,77 +944,77 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
         <v>3</v>
       </c>
-      <c r="T4" t="n">
-        <v>4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>6</v>
-      </c>
       <c r="AJ4" t="n">
         <v>2</v>
       </c>
       <c r="AK4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>57193533853</t>
+          <t>57194034904</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T00000629</t>
+          <t>T00014261</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JAIME ANTONIO ACEVEDO CHEDID</t>
+          <t>HOLMAN OSPINA MATEUS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1024,108 +1024,108 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Acevedo-Chedid, Jaime</t>
+          <t>Ospina-Mateus, Holman</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57193533853</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57194034904</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Acevedo-Chedid, Jaime (57193533853)</t>
+          <t>Ospina-Mateus, Holman (57194034904)</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
         <v>11</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI5" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>2</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1168,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1258,17 +1258,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>24537991200</t>
+          <t>57193533853</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T00009693</t>
+          <t>T00000629</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JAIRO FRANCISCO USECHE VIVERO</t>
+          <t>JAIME ANTONIO ACEVEDO CHEDID</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1278,27 +1278,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Useche, J. F.</t>
+          <t>Acevedo-Chedid, Jaime</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=24537991200</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57193533853</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Useche, J. (24537991200)</t>
+          <t>Acevedo-Chedid, Jaime (57193533853)</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1313,25 +1313,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1340,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -1358,28 +1358,28 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1422,7 +1422,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1512,17 +1512,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>57210822856</t>
+          <t>24537991200</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T00000243</t>
+          <t>T00009693</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SONIA HELENA CONTRERAS ORTIZ</t>
+          <t>JAIRO FRANCISCO USECHE VIVERO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1532,42 +1532,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Contreras-Ortiz, Sonia H.</t>
+          <t>Useche, J. F.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57210822856</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=24537991200</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Contreras-Ortiz, S.H. (57210822856)</t>
+          <t>Useche, J. (24537991200)</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1594,82 +1594,82 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
         <v>2</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="n">
         <v>3</v>
       </c>
-      <c r="AE9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ9" t="n">
         <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>56674579200</t>
+          <t>57039103600</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T00020729</t>
+          <t>T00047675</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ROSA LEONOR ACEVEDO BARRIOS</t>
+          <t>LAURA PATRICIA MARTINEZ BUELVAS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Acevedo-Barrios, R. L.</t>
+          <t>Martínez-Buelvas, Laura Patricia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=56674579200</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57039103600</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Acevedo-Barrios, R. (56674579200)</t>
+          <t>Martínez-Buelvas, Laura (57039103600)</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1679,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
@@ -1721,95 +1721,95 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
         <v>3</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>57191333650</t>
+          <t>56674579200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T00069449</t>
+          <t>T00020729</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DAVID SIERRA PORTA</t>
+          <t>ROSA LEONOR ACEVEDO BARRIOS</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sierra-Porta D.</t>
+          <t>Acevedo-Barrios, R. L.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57191333650</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=56674579200</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sierra-Porta, D. (57191333650)</t>
+          <t>Acevedo-Barrios, R. (56674579200)</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1821,89 +1821,89 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>3</v>
       </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="n">
         <v>3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>5</v>
       </c>
       <c r="AG11" t="n">
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7005142049</t>
+          <t>57210822856</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T00000068</t>
+          <t>T00000243</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>JOSE LUIS VILLA RAMIREZ</t>
+          <t>SONIA HELENA CONTRERAS ORTIZ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1913,57 +1913,57 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Villa, J. L.</t>
+          <t>Contreras-Ortiz, Sonia H.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57195913752</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57210822856</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Villa, J.L. (7005142049)</t>
+          <t>Contreras-Ortiz, S.H. (57210822856)</t>
         </is>
       </c>
       <c r="H12" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>8</v>
       </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1972,46 +1972,46 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="n">
         <v>4</v>
       </c>
-      <c r="X12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>2</v>
-      </c>
       <c r="AF12" t="n">
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK12" t="n">
         <v>5</v>
@@ -2020,50 +2020,50 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>55649334800</t>
+          <t>57191333650</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T00049553</t>
+          <t>T00069449</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIANA CAROLINA RUBIANO LABRADOR</t>
+          <t>DAVID SIERRA PORTA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rubiano-Labrador, Carolina</t>
+          <t>Sierra-Porta D.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=55649334800</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57191333650</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rubiano-Labrador, C. (55649334800)</t>
+          <t>Sierra-Porta, D. (57191333650)</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2075,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -2087,55 +2087,55 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF13" t="n">
         <v>5</v>
       </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ13" t="n">
         <v>3</v>
@@ -2147,56 +2147,56 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>26325154200</t>
+          <t>7005142049</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>T00000254</t>
+          <t>T00000068</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>JUAN CARLOS MARTINEZ SANTOS</t>
+          <t>JOSE LUIS VILLA RAMIREZ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Martínez, Juan Carlos</t>
+          <t>Villa, J. L.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=26325154200</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57195913752</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Martínez-Santos, Juan Carlos (26325154200)</t>
+          <t>Villa, J.L. (7005142049)</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2211,25 +2211,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -2244,77 +2244,77 @@
         <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>4</v>
       </c>
-      <c r="AE14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>3</v>
-      </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
         <v>1</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>55872162200</t>
+          <t>55649334800</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T00044492</t>
+          <t>T00049553</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MAURO ANTONIO MAZA CHAMORRO</t>
+          <t>DIANA CAROLINA RUBIANO LABRADOR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Maza-Chamorro, Mauro Antonio</t>
+          <t>Rubiano-Labrador, Carolina</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=55872162200</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=55649334800</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Maza-Chamorro, Mauro Antonio (55872162200)</t>
+          <t>Rubiano-Labrador, C. (55649334800)</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2356,46 +2356,46 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -2528,17 +2528,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>57024211000</t>
+          <t>55872162200</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>T00057415</t>
+          <t>T00044492</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DEYLER RAFAEL CASTILLA CABALLERO</t>
+          <t>MAURO ANTONIO MAZA CHAMORRO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2548,21 +2548,21 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Castilla-Caballero, Deyler</t>
+          <t>Maza-Chamorro, Mauro Antonio</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57024211000</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=55872162200</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Castilla-Caballero, Deyler (57024211000)</t>
+          <t>Maza-Chamorro, Mauro Antonio (55872162200)</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
         <v>1</v>
@@ -2655,125 +2655,125 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>57196040759</t>
+          <t>26325154200</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T00052721</t>
+          <t>T00000254</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PEDRO VAZQUEZ MIRAZ</t>
+          <t>JUAN CARLOS MARTINEZ SANTOS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vázquez-Miraz, Pedro</t>
+          <t>Martínez, Juan Carlos</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57196040759</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=26325154200</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Vázquez-Miraz, Pedro (57196040759)</t>
+          <t>Martínez-Santos, Juan Carlos (26325154200)</t>
         </is>
       </c>
       <c r="H18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>12</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD18" t="n">
         <v>4</v>
       </c>
-      <c r="I18" t="n">
+      <c r="AE18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF18" t="n">
         <v>3</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="AG18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH18" t="n">
         <v>3</v>
       </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>2</v>
-      </c>
       <c r="AI18" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK18" t="n">
         <v>4</v>
@@ -2782,17 +2782,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>56581610900</t>
+          <t>57024211000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T00007524</t>
+          <t>T00057415</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>JUAN GABRIEL FAJARDO CUADRO</t>
+          <t>DEYLER RAFAEL CASTILLA CABALLERO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2802,21 +2802,21 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fajardo, Juan Gabriel</t>
+          <t>Castilla-Caballero, Deyler</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=56581610900</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57024211000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fajardo-Cuadro, Juan Gabriel (56581610900)</t>
+          <t>Castilla-Caballero, Deyler (57024211000)</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -2825,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2849,37 +2849,37 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -2888,58 +2888,58 @@
         <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>57219403758</t>
+          <t>57206773929</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>T00028098</t>
+          <t>T00055756</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MARY JUDITH ARIAS TAPIA</t>
+          <t>TANIA LUCIA COBOS COBOS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Arias Tapia, Mary Judith</t>
+          <t>Cobos, Tania Lucía</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57219403758</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57206773929</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Arias-Tapia, Mary Judith (57219403758)</t>
+          <t>Cobos, Tania Lucía (57206773929)</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2949,7 +2949,7 @@
         <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
         <v>1</v>
@@ -3021,16 +3021,16 @@
         <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3073,7 +3073,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3163,44 +3163,44 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>57200615582</t>
+          <t>57196040759</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T00040553</t>
+          <t>T00052721</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MILTON CESAR GUERRERO PAJARO</t>
+          <t>PEDRO VAZQUEZ MIRAZ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Guerrero, Milton</t>
+          <t>Vázquez-Miraz, Pedro</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57200615582</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57196040759</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Guerrero, Milton (57200615582)</t>
+          <t>Vázquez-Miraz, Pedro (57196040759)</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3218,19 +3218,19 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -3251,83 +3251,83 @@
         <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AH22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>57206773929</t>
+          <t>57200615582</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>T00055756</t>
+          <t>T00040553</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TANIA LUCIA COBOS COBOS</t>
+          <t>MILTON CESAR GUERRERO PAJARO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cobos, Tania Lucía</t>
+          <t>Guerrero, Milton</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57206773929</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57200615582</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cobos, Tania Lucía (57206773929)</t>
+          <t>Guerrero, Milton (57200615582)</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3348,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -3408,46 +3408,46 @@
         <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>57758796500</t>
+          <t>56581610900</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T00000058</t>
+          <t>T00007524</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JORGE LUIS MUÑIZ OLITE</t>
+          <t>JUAN GABRIEL FAJARDO CUADRO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Muñiz-Olite, Jorge Luis</t>
+          <t>Fajardo, Juan Gabriel</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57758796500</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=56581610900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Olite, Jorge Luis Muñiz (57758796500)</t>
+          <t>Fajardo-Cuadro, Juan Gabriel (56581610900)</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -3514,101 +3514,101 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
         <v>1</v>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ24" t="n">
         <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>57192930752</t>
+          <t>57758796500</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T00019649</t>
+          <t>T00000058</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>KAROL PATRICIA GUTIERREZ RUIZ</t>
+          <t>JORGE LUIS MUÑIZ OLITE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gutiérrez-Ruiz, Karol Patricia</t>
+          <t>Muñiz-Olite, Jorge Luis</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57192930752</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57758796500</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Gutiérrez-Ruiz, K. (57192930752)</t>
+          <t>Olite, Jorge Luis Muñiz (57758796500)</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -3617,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3632,83 +3632,83 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>57350116000</t>
+          <t>57219403758</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>T00055760</t>
+          <t>T00028098</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>JEOVANNY DE JESUS MUENTES ACEVEDO</t>
+          <t>MARY JUDITH ARIAS TAPIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Acevedo, Jeovanny Muentes</t>
+          <t>Arias Tapia, Mary Judith</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57222990626</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57219403758</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Muentes, J. (57350116000)</t>
+          <t>Arias-Tapia, Mary Judith (57219403758)</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3750,13 +3750,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3771,28 +3771,28 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -3962,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -4306,56 +4306,56 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>57205400052</t>
+          <t>57192930752</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>T00012602</t>
+          <t>T00019649</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>JENIFER YORIS VASQUEZ AGUILAR</t>
+          <t>KAROL PATRICIA GUTIERREZ RUIZ</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Vásquez, Jenifer</t>
+          <t>Gutiérrez-Ruiz, Karol Patricia</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57205400052</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57192930752</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Vásquez, Jenifer (57205400052)</t>
+          <t>Gutiérrez-Ruiz, K. (57192930752)</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -4370,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -4385,95 +4385,95 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="n">
         <v>4</v>
       </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>1</v>
-      </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>4</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>57197327858</t>
+          <t>57350116000</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>T00000049</t>
+          <t>T00055760</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>OSCAR ACEVEDO PATIÑO</t>
+          <t>JEOVANNY DE JESUS MUENTES ACEVEDO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Acevedo-Patĩno, Oscar</t>
+          <t>Acevedo, Jeovanny Muentes</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57197327858</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57222990626</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Acevedo, Oscar (57197327858)</t>
+          <t>Muentes, J. (57350116000)</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -4491,16 +4491,16 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -4512,46 +4512,46 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF32" t="n">
         <v>2</v>
       </c>
       <c r="AG32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK32" t="n">
         <v>2</v>
@@ -4560,44 +4560,44 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>56682785300</t>
+          <t>57392556500</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>T00022128</t>
+          <t>T00014731</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LUZ ALEJANDRA MAGRE COLORADO</t>
+          <t>LINA MARGARITA MARRUGO SALAS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Magre, Luz Alejandra</t>
+          <t>Marrugo-Salas, Lina Margarita</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=56682785300</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57192271754</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Magre Colorado, Luz A. (56682785300)</t>
+          <t>Marrugo-Salas, Lina (57392556500)</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -4627,10 +4627,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
@@ -4669,55 +4669,55 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>57392556500</t>
+          <t>57190688459</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>T00014731</t>
+          <t>T00019348</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LINA MARGARITA MARRUGO SALAS</t>
+          <t>ALBERTO PATIÑO VANEGAS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Marrugo-Salas, Lina Margarita</t>
+          <t>Patiño, Alberto</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57192271754</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57190688459</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Marrugo-Salas, Lina (57392556500)</t>
+          <t>Patiño-Vanegas, Alberto (57190688459)</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -4754,23 +4754,23 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
         <v>4</v>
       </c>
-      <c r="T34" t="n">
-        <v>1</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
       <c r="Y34" t="n">
         <v>0</v>
       </c>
@@ -4784,74 +4784,74 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH34" t="n">
         <v>1</v>
       </c>
       <c r="AI34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ34" t="n">
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>57193252278</t>
+          <t>57223851529</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T00021661</t>
+          <t>T00040584</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JAIRO HUMBERTO CABRERA TOVAR</t>
+          <t>ELSY MERCEDES DOMINGUEZ DE LA OSSA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cabrera, Jairo</t>
+          <t>de la Ossa, Elsy Domínguez</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57193252278</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57223851529</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cabrera, Jairo (57193252278)</t>
+          <t>Domínguez-De la Ossa, Elsy (57223851529)</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -4872,13 +4872,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -4896,19 +4896,19 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
@@ -4920,65 +4920,65 @@
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>57220927199</t>
+          <t>57197327858</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>T00010915</t>
+          <t>T00000049</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>JAIRO ENRIQUE SERRANO CASTAÑEDA</t>
+          <t>OSCAR ACEVEDO PATIÑO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Serrano, Jairo E.</t>
+          <t>Acevedo-Patĩno, Oscar</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57220927199</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57197327858</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Serrano, Jairo E. (57220927199)</t>
+          <t>Acevedo, Oscar (57197327858)</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -5005,10 +5005,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -5038,74 +5038,74 @@
         <v>1</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
         <v>1</v>
       </c>
       <c r="AK36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>57203321995</t>
+          <t>56682785300</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>T00021700</t>
+          <t>T00022128</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HERNANDO RAFAEL ALTAMAR MERCADO</t>
+          <t>LUZ ALEJANDRA MAGRE COLORADO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Altamar-Mercado, Hernando</t>
+          <t>Magre, Luz Alejandra</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57203321995</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=56682785300</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Altamar-Mercado, Hernando (57203321995)</t>
+          <t>Magre Colorado, Luz A. (56682785300)</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -5123,89 +5123,89 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI37" t="n">
         <v>3</v>
       </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>55258973100</t>
+          <t>57205400052</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>T00059175</t>
+          <t>T00012602</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CLAUDIA PATRICIA DIAZ MENDOZA</t>
+          <t>JENIFER YORIS VASQUEZ AGUILAR</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5215,27 +5215,27 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Díaz-Mendoza, Claudia</t>
+          <t>Vásquez, Jenifer</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=55258973100</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57205400052</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Díaz-Mendoza, Claudia (55258973100)</t>
+          <t>Vásquez, Jenifer (57205400052)</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -5259,13 +5259,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -5289,86 +5289,86 @@
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
         <v>0</v>
       </c>
       <c r="AD38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
         <v>4</v>
       </c>
-      <c r="AE38" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>2</v>
-      </c>
       <c r="AJ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>57190688459</t>
+          <t>57322375300</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>T00019348</t>
+          <t>T00038378</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ALBERTO PATIÑO VANEGAS</t>
+          <t>JAMES MANUEL PEREZ MORON</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Patiño, Alberto</t>
+          <t>Pérez-Morón, James</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57190688459</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57322375300</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Patiño-Vanegas, Alberto (57190688459)</t>
+          <t>Pérez-Morón, James Manuel (57322375300)</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -5380,16 +5380,16 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -5401,92 +5401,92 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG39" t="n">
         <v>4</v>
       </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>5</v>
-      </c>
       <c r="AH39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>57223851529</t>
+          <t>57193252278</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>T00040584</t>
+          <t>T00021661</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ELSY MERCEDES DOMINGUEZ DE LA OSSA</t>
+          <t>JAIRO HUMBERTO CABRERA TOVAR</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>de la Ossa, Elsy Domínguez</t>
+          <t>Cabrera, Jairo</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57223851529</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57193252278</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Domínguez-De la Ossa, Elsy (57223851529)</t>
+          <t>Cabrera, Jairo (57193252278)</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -5507,13 +5507,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -5531,19 +5531,19 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
@@ -5555,65 +5555,65 @@
         <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH40" t="n">
         <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>58068069000</t>
+          <t>57220927199</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>T00000054</t>
+          <t>T00010915</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>WILLIAM ARELLANO CARTAGENA</t>
+          <t>JAIRO ENRIQUE SERRANO CASTAÑEDA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Arellano-Cartagena, William</t>
+          <t>Serrano, Jairo E.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=58068069000</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57220927199</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Arellano-Cartagena, William (58068069000)</t>
+          <t>Serrano, Jairo E. (57220927199)</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -5652,10 +5652,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -5664,13 +5664,13 @@
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41" t="n">
         <v>0</v>
@@ -5688,10 +5688,10 @@
         <v>1</v>
       </c>
       <c r="AH41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ41" t="n">
         <v>1</v>
@@ -5703,44 +5703,44 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>57218294431</t>
+          <t>57203321995</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T00051182</t>
+          <t>T00021700</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SERGIO VILLAR SALINAS</t>
+          <t>HERNANDO RAFAEL ALTAMAR MERCADO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Villar-Salinas, Sergio</t>
+          <t>Altamar-Mercado, Hernando</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57218294431</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57203321995</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Villar-Salinas, Sergio (57218294431)</t>
+          <t>Altamar-Mercado, Hernando (57203321995)</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -5758,10 +5758,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -5809,16 +5809,16 @@
         <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42" t="n">
         <v>0</v>
@@ -5830,50 +5830,50 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>55783129400</t>
+          <t>55258973100</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>T00000064</t>
+          <t>T00059175</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MOISES RAMON QUINTANA ALVAREZ</t>
+          <t>CLAUDIA PATRICIA DIAZ MENDOZA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Quintana, Moisés</t>
+          <t>Díaz-Mendoza, Claudia</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=55783129400</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=55258973100</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Quintana, Moisés (55783129400)</t>
+          <t>Díaz-Mendoza, Claudia (55258973100)</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -5894,13 +5894,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5924,70 +5924,70 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>57918628600</t>
+          <t>57218294431</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>T00057400</t>
+          <t>T00051182</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>JORGE LUIS VILLALBA ACEVEDO</t>
+          <t>SERGIO VILLAR SALINAS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Villalba-Acevedo, Jorge Luis</t>
+          <t>Villar-Salinas, Sergio</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57918628600</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57218294431</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Villalba-Acevedo, Jorge Luis (57918628600)</t>
+          <t>Villar-Salinas, Sergio (57218294431)</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -6012,10 +6012,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -6024,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -6039,19 +6039,19 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44" t="n">
         <v>0</v>
@@ -6063,22 +6063,22 @@
         <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG44" t="n">
         <v>2</v>
       </c>
       <c r="AH44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6121,7 +6121,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -6211,50 +6211,50 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>57204842254</t>
+          <t>55783129400</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>T00019354</t>
+          <t>T00000064</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TANIA ISABEL JIMENEZ CASTILLA</t>
+          <t>MOISES RAMON QUINTANA ALVAREZ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jiménez-Castilla, Tania</t>
+          <t>Quintana, Moisés</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57204842254</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=55783129400</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Jiménez-Castilla, Tania (57204842254)</t>
+          <t>Quintana, Moisés (55783129400)</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
@@ -6311,10 +6311,10 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF46" t="n">
         <v>0</v>
@@ -6329,26 +6329,26 @@
         <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>57222278899</t>
+          <t>57204842254</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>T00047950</t>
+          <t>T00019354</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>KATLEEN PAOLA MARUN UPARELA</t>
+          <t>TANIA ISABEL JIMENEZ CASTILLA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -6358,24 +6358,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Marún-Uparela, Katleen</t>
+          <t>Jiménez-Castilla, Tania</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57222278899</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57204842254</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Marún-Uparela, Katleen (57222278899)</t>
+          <t>Jiménez-Castilla, Tania (57204842254)</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -6408,13 +6408,13 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
@@ -6450,52 +6450,52 @@
         <v>0</v>
       </c>
       <c r="AH47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>57156565000</t>
+          <t>58068069000</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>T00076376</t>
+          <t>T00000054</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>YADY TATIANA SOLANO CORREA</t>
+          <t>WILLIAM ARELLANO CARTAGENA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Solano-Correa, Yady Tatiana</t>
+          <t>Arellano-Cartagena, William</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57156565000</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=58068069000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Solano-Correa, Yady Tatiana (57156565000)</t>
+          <t>Arellano-Cartagena, William (58068069000)</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -6505,7 +6505,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -6529,10 +6529,10 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -6547,13 +6547,13 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
@@ -6565,71 +6565,71 @@
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG48" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AH48" t="n">
         <v>1</v>
       </c>
       <c r="AI48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>57197807415</t>
+          <t>57189892062</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>T00000413</t>
+          <t>T00076408</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>JORGE LUIS DEL RIO CORTINA</t>
+          <t>ENRIQUE PEREIRA BATISTA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Del Rio Cortina, Jorge</t>
+          <t>Pereira Batista, Enrique</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57197807415</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57189892062</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Del Río Cortina, Jorge (57197807415)</t>
+          <t>Pereira-Batista, Enrique (57189892062)</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -6659,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -6701,13 +6701,13 @@
         <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ49" t="n">
         <v>0</v>
@@ -6719,50 +6719,50 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>57205658483</t>
+          <t>57222278899</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>T00000020</t>
+          <t>T00047950</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>JORGE ELIECER DUQUE PARDO</t>
+          <t>KATLEEN PAOLA MARUN UPARELA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Duque, Jorge Eliecer</t>
+          <t>Marún-Uparela, Katleen</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57205658483</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57222278899</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Duque, J. (57205658483)</t>
+          <t>Marún-Uparela, Katleen (57222278899)</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -6789,13 +6789,13 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -6813,16 +6813,16 @@
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC50" t="n">
         <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF50" t="n">
         <v>0</v>
@@ -6831,52 +6831,52 @@
         <v>0</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>58068307100</t>
+          <t>57918628600</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>T00000030</t>
+          <t>T00057400</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>JORGE LUIS ALVIS ARRIETA</t>
+          <t>JORGE LUIS VILLALBA ACEVEDO</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Alvis-Arrieta, Jorge</t>
+          <t>Villalba-Acevedo, Jorge Luis</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=58068307100</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57918628600</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alvis-Arrieta, Jorge (58068307100)</t>
+          <t>Villalba-Acevedo, Jorge Luis (57918628600)</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -6907,40 +6907,40 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51" t="n">
         <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51" t="n">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG51" t="n">
         <v>2</v>
@@ -6961,53 +6961,53 @@
         <v>1</v>
       </c>
       <c r="AI51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>57204847841</t>
+          <t>57197807415</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>T00064566</t>
+          <t>T00000413</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HAROLD ALBERTO RODRIGUEZ ARIAS</t>
+          <t>JORGE LUIS DEL RIO CORTINA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Rodríguez-Arias, Harold A.</t>
+          <t>Del Rio Cortina, Jorge</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57204847841</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57197807415</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Rodriguez-Arias, Andy J. (57204847841)</t>
+          <t>Del Río Cortina, Jorge (57197807415)</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
@@ -7073,22 +7073,22 @@
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF52" t="n">
         <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ52" t="n">
         <v>0</v>
@@ -7100,50 +7100,50 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>57219506381</t>
+          <t>58068307100</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>T00053397</t>
+          <t>T00000030</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CARLOS RAFAEL PAYARES GUEVARA</t>
+          <t>JORGE LUIS ALVIS ARRIETA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Guevara, Carlos R.Payares</t>
+          <t>Alvis-Arrieta, Jorge</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57225975125&amp;origin=recordpage</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=58068307100</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Payares Guevara, Carlos R. (57219506381)</t>
+          <t>Alvis-Arrieta, Jorge (58068307100)</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7161,10 +7161,10 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -7200,16 +7200,16 @@
         <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH53" t="n">
         <v>1</v>
@@ -7227,41 +7227,41 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>58954857900</t>
+          <t>57205658483</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>T00057359</t>
+          <t>T00000020</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AUGUSTO ANDRES ALEAN ROMERO</t>
+          <t>JORGE ELIECER DUQUE PARDO</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Aleán–Romero, Andrés</t>
+          <t>Duque, Jorge Eliecer</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=58954857900&amp;origin=recordpage</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57205658483</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Aleán–Romero, Andrés (58954857900)</t>
+          <t>Duque, J. (57205658483)</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC54" t="n">
         <v>0</v>
@@ -7333,10 +7333,10 @@
         <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH54" t="n">
         <v>0</v>
@@ -7345,46 +7345,46 @@
         <v>0</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>57903699900</t>
+          <t>57219506381</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>T00022797</t>
+          <t>T00053397</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>RAFAEL DAVID MENDEZ ANILLO</t>
+          <t>CARLOS RAFAEL PAYARES GUEVARA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Méndez-Anillo, Rafael D.</t>
+          <t>Guevara, Carlos R.Payares</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57903699900&amp;origin=recordpage</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57225975125&amp;origin=recordpage</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Méndez-Anillo, Rafael D. (57903699900)</t>
+          <t>Payares Guevara, Carlos R. (57219506381)</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -7394,10 +7394,10 @@
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -7439,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
@@ -7466,32 +7466,32 @@
         <v>0</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>57039103600</t>
+          <t>57202159706</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>T00047675</t>
+          <t>T00085821</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LAURA PATRICIA MARTINEZ BUELVAS</t>
+          <t>YULANDERSON SALGUERO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -7501,24 +7501,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Martínez-Buelvas, Laura Patricia</t>
+          <t>Salguero-Rodríguez, Yulánderson</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57039103600</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57202159706</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Martínez-Buelvas, Laura (57039103600)</t>
+          <t>Rodríguez, Yulanderson Salguero (57202159706)</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" t="n">
         <v>0</v>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="AI56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ56" t="n">
         <v>0</v>
@@ -7608,37 +7608,37 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>58803522300</t>
+          <t>58954857900</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>T00015209</t>
+          <t>T00057359</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MAURO ANTONIO GONZALEZ SIERRA</t>
+          <t>AUGUSTO ANDRES ALEAN ROMERO</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Gonzalez-Sierra, Mauro A.</t>
+          <t>Aleán–Romero, Andrés</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=58803522300</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=58954857900&amp;origin=recordpage</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Gonzalez-Sierra, Mauro A. (58803522300)</t>
+          <t>Aleán–Romero, Andrés (58954857900)</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
         <v>0</v>
@@ -7717,13 +7717,13 @@
         <v>1</v>
       </c>
       <c r="AG57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH57" t="n">
         <v>0</v>
       </c>
       <c r="AI57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" t="n">
         <v>0</v>
@@ -7735,37 +7735,37 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>58660078000</t>
+          <t>57903699900</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>T00000073</t>
+          <t>T00022797</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>AARÓN EDUARDO ESPINOSA ESPINOSA</t>
+          <t>RAFAEL DAVID MENDEZ ANILLO</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Espinosa-Espinos, Aaron</t>
+          <t>Méndez-Anillo, Rafael D.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57211108028</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57903699900&amp;origin=recordpage</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Espinosa-Espinos, Aaron (58660078000)</t>
+          <t>Méndez-Anillo, Rafael D. (57903699900)</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -7775,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -7814,13 +7814,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -7835,10 +7835,10 @@
         <v>0</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF58" t="n">
         <v>0</v>
@@ -7847,59 +7847,59 @@
         <v>0</v>
       </c>
       <c r="AH58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>57222223605</t>
+          <t>58803522300</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>T00055292</t>
+          <t>T00015209</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MARCOS RICARDO POSADA LLORENTE</t>
+          <t>MAURO ANTONIO GONZALEZ SIERRA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Llorente, Marcos Ricardo Posada</t>
+          <t>Gonzalez-Sierra, Mauro A.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57222223605</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=58803522300</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Llorente, Marcos Ricardo Posada (57222223605)</t>
+          <t>Gonzalez-Sierra, Mauro A. (58803522300)</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -7929,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59" t="n">
         <v>0</v>
@@ -7968,16 +7968,16 @@
         <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH59" t="n">
         <v>0</v>
       </c>
       <c r="AI59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ59" t="n">
         <v>0</v>
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -8116,44 +8116,44 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>57195913859</t>
+          <t>57222223605</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>T00019346</t>
+          <t>T00055292</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>JULIO SEFERINO HURTADO MARQUEZ</t>
+          <t>MARCOS RICARDO POSADA LLORENTE</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Hurtado, Julio Seferino</t>
+          <t>Llorente, Marcos Ricardo Posada</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57195913859</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57222223605</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hurtado, Julio (57195913859)</t>
+          <t>Llorente, Marcos Ricardo Posada (57222223605)</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -8243,17 +8243,17 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>57427876200</t>
+          <t>58660078000</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>T00000431</t>
+          <t>T00000073</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ELIAS RAFAEL GENEY CASTRO</t>
+          <t>AARÓN EDUARDO ESPINOSA ESPINOSA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -8263,17 +8263,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Geney-Castro, Elías</t>
+          <t>Espinosa-Espinos, Aaron</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57427876200</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57211108028</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Geney, Elías Rafael (57427876200)</t>
+          <t>Espinosa-Espinos, Aaron (58660078000)</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -8343,10 +8343,10 @@
         <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF62" t="n">
         <v>0</v>
@@ -8370,44 +8370,44 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>57212006168</t>
+          <t>57195913859</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>T00000057</t>
+          <t>T00019346</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EDUARDO GOMEZ VASQUEZ</t>
+          <t>JULIO SEFERINO HURTADO MARQUEZ</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Gomez, Eduardo</t>
+          <t>Hurtado, Julio Seferino</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57212006168</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57195913859</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Gomez, Eduardo (57212006168)</t>
+          <t>Hurtado, Julio (57195913859)</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC63" t="n">
         <v>0</v>
@@ -8488,26 +8488,26 @@
         <v>0</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>57209248085</t>
+          <t>57204847841</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>T00021662</t>
+          <t>T00064566</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EDGARDO WILLIAM ARRIETA ORTIZ</t>
+          <t>HAROLD ALBERTO RODRIGUEZ ARIAS</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -8517,24 +8517,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Arrieta, O. E.W.</t>
+          <t>Rodríguez-Arias, Harold A.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57209248085</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57204847841</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Arrieta, O.E.W. (57209248085)</t>
+          <t>Rodríguez-Arias, H.A. (57204847841)</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -8618,23 +8618,23 @@
         <v>0</v>
       </c>
       <c r="AK64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>57201036449</t>
+          <t>57427876200</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>T00012429</t>
+          <t>T00000431</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DAVID JAVIER FORTICH PEREZ</t>
+          <t>ELIAS RAFAEL GENEY CASTRO</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -8644,24 +8644,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Fortich Pérez, David J.</t>
+          <t>Geney-Castro, Elías</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57201036449</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57427876200</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Fortich-Pérez, David (57201036449)</t>
+          <t>Geney, Elías Rafael (57427876200)</t>
         </is>
       </c>
       <c r="H65" t="n">
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -8682,10 +8682,10 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" t="n">
         <v>0</v>
@@ -8724,22 +8724,22 @@
         <v>0</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ65" t="n">
         <v>0</v>
@@ -8751,37 +8751,37 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>58618811100</t>
+          <t>57212006168</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>T00000083</t>
+          <t>T00000057</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DANILO LUSBIN ARIZA RUA</t>
+          <t>EDUARDO GOMEZ VASQUEZ</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ariza-Rua, Danilo Lusbin</t>
+          <t>Gomez, Eduardo</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=58618811100</t>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=57212006168</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Ariza-Rua, Danilo Lusbin (58618811100)</t>
+          <t>Gomez, Eduardo (57212006168)</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -8818,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
         <v>0</v>
@@ -8833,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="n">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="AB66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC66" t="n">
         <v>0</v>
@@ -8860,62 +8860,62 @@
         <v>0</v>
       </c>
       <c r="AG66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH66" t="n">
         <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>57322375300</t>
+          <t>57209248085</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>T00038378</t>
+          <t>T00021662</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>JAMES MANUEL PEREZ MORON</t>
+          <t>EDGARDO WILLIAM ARRIETA ORTIZ</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pérez-Morón, James</t>
+          <t>Arrieta, O. E.W.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57322375300</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57209248085</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Perez-Moron, James (57322375300)</t>
+          <t>Arrieta, O.E.W. (57209248085)</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="AC67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -8999,50 +8999,50 @@
         <v>0</v>
       </c>
       <c r="AK67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>58523557700</t>
+          <t>57201036449</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>T00002456</t>
+          <t>T00012429</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ALFREDO MIGUEL ABUCHAR CURI</t>
+          <t>DAVID JAVIER FORTICH PEREZ</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
+          <t>ESCUELA DE NEGOCIOS, LEYES Y SOCIEDAD</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Abuchar-Curi, Alfredo Miguel</t>
+          <t>Fortich Pérez, David J.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=58523557700</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57201036449</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Abuchar-Curi, Alfredo Miguel (58523557700)</t>
+          <t>Fortich-Pérez, David (57201036449)</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -9063,10 +9063,10 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9078,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -9111,16 +9111,16 @@
         <v>0</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ68" t="n">
         <v>0</v>
@@ -9132,37 +9132,37 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>57216868622</t>
+          <t>58618811100</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>T00040585</t>
+          <t>T00000083</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ADOLFO BALTAR MORENO</t>
+          <t>DANILO LUSBIN ARIZA RUA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>CIENCIAS BÁSICAS</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Baltar-Moreno, Adolfo</t>
+          <t>Ariza-Rua, Danilo Lusbin</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57216868622</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=58618811100</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Moreno, Adolfo Baltar (57216868622)</t>
+          <t>Ariza-Rua, Danilo Lusbin (58618811100)</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
@@ -9208,68 +9208,68 @@
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y69" t="n">
         <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA69" t="n">
         <v>0</v>
       </c>
       <c r="AB69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC69" t="n">
         <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
         <v>0</v>
       </c>
       <c r="AG69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>57215557867</t>
+          <t>58523557700</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>T00057454</t>
+          <t>T00002456</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CARLOS HUMBERTO GUALDRON GARCIA</t>
+          <t>ALFREDO MIGUEL ABUCHAR CURI</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -9279,24 +9279,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Gualdrón, Carlos</t>
+          <t>Abuchar-Curi, Alfredo Miguel</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57215557867</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=58523557700</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Gualdron, Carlos (57215557867)</t>
+          <t>Abuchar-Curi, Alfredo Miguel (58523557700)</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -9326,13 +9326,13 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70" t="n">
         <v>0</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="AC70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -9368,62 +9368,62 @@
         <v>0</v>
       </c>
       <c r="AG70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ70" t="n">
         <v>0</v>
       </c>
       <c r="AK70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>57189892062</t>
+          <t>57216868622</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>T00076408</t>
+          <t>T00040585</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ENRIQUE PEREIRA BATISTA</t>
+          <t>ADOLFO BALTAR MORENO</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CIENCIAS BÁSICAS</t>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Pereira Batista, Enrique</t>
+          <t>Baltar-Moreno, Adolfo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57189892062</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57216868622</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Pereira-Batista, Enrique (57189892062)</t>
+          <t>Moreno, Adolfo Baltar (57216868622)</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -9462,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA71" t="n">
         <v>0</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC71" t="n">
         <v>0</v>
@@ -9498,32 +9498,32 @@
         <v>0</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>58917134900</t>
+          <t>57215557867</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>T00035572</t>
+          <t>T00057454</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JEFFERSON ANDRES PIEDRAHITA GONZALEZ</t>
+          <t>CARLOS HUMBERTO GUALDRON GARCIA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -9533,17 +9533,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Piedrahita, Jefferson Marulanda</t>
+          <t>Gualdrón, Carlos</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=58917134900&amp;origin=recordpage</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=57215557867</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Piedrahita, Jefferson (58917134900)</t>
+          <t>Gualdron, Carlos (57215557867)</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T72" t="n">
         <v>0</v>
@@ -9592,10 +9592,10 @@
         <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72" t="n">
         <v>0</v>
@@ -9610,22 +9610,22 @@
         <v>0</v>
       </c>
       <c r="AC72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF72" t="n">
         <v>0</v>
       </c>
       <c r="AG72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI72" t="n">
         <v>1</v>
@@ -9634,23 +9634,23 @@
         <v>0</v>
       </c>
       <c r="AK72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>58153979500</t>
+          <t>58917134900</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>T00000062</t>
+          <t>T00035572</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>LUIS CARLOS ARRAUT CAMARGO</t>
+          <t>JEFFERSON ANDRES PIEDRAHITA GONZALEZ</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -9660,17 +9660,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Arraut, Luis Carlos</t>
+          <t>Piedrahita, Jefferson Marulanda</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=58153979500</t>
+          <t>https://www.scopus.com/authid/detail.uri?authorId=58917134900&amp;origin=recordpage</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Arraut, Luis (58153979500)</t>
+          <t>Piedrahita, Jefferson (58917134900)</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X73" t="n">
         <v>0</v>
@@ -9737,13 +9737,13 @@
         <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AD73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF73" t="n">
         <v>0</v>
@@ -9752,50 +9752,52 @@
         <v>0</v>
       </c>
       <c r="AH73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ73" t="n">
         <v>0</v>
       </c>
       <c r="AK73" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>58868256900</t>
+          <t>58153979500</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>T00022976</t>
+          <t>T00000062</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MARELBI DEL CARMEN OLMOS PEREZ</t>
+          <t>LUIS CARLOS ARRAUT CAMARGO</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+          <t>ESCUELA DE INGENIERÍA, ARQUITECTURA Y DISEÑO</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Olmos, Marelbi</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
+          <t>Arraut, Luis Carlos</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://scopus.utb.elogim.com/authid/detail.uri?authorId=58153979500</t>
+        </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Olmos, Marelbi (58868256900)</t>
+          <t>Arraut, Luis (58153979500)</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -9847,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74" t="n">
         <v>0</v>
@@ -9862,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="AC74" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD74" t="n">
         <v>0</v>
@@ -9880,139 +9882,264 @@
         <v>0</v>
       </c>
       <c r="AI74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ74" t="n">
         <v>0</v>
       </c>
       <c r="AK74" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
+          <t>58868256900</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>T00022976</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MARELBI DEL CARMEN OLMOS PEREZ</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>ESCUELA DE TRANSFORMACIÓN DIGITAL</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Olmos, Marelbi</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Olmos, Marelbi (58868256900)</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
           <t>59987226300</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>T00026962</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>STEFANIA ARIAS CIFUENTES</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>CENTRO DE IDIOMAS</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>Arias-Cifuentes, Stefania</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://www.scopus.com/authid/detail.uri?authorId=59987226300&amp;origin=recordpage</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>Arias-Cifuentes, Stefania (59987226300)</t>
         </is>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" t="n">
-        <v>0</v>
-      </c>
-      <c r="U75" t="n">
-        <v>0</v>
-      </c>
-      <c r="V75" t="n">
-        <v>0</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0</v>
-      </c>
-      <c r="X75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK75" t="n">
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK76" t="n">
         <v>0</v>
       </c>
     </row>

--- a/MidataMiScript.xlsx
+++ b/MidataMiScript.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
